--- a/biology/Zoologie/Alysia/Alysia.xlsx
+++ b/biology/Zoologie/Alysia/Alysia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alysia est un genre d'insectes de l'ordre des hyménoptères, de la famille des braconidés (Braconidae) et de la sous-famille des Alysiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Alysia a été décrit et enregistré par l'entomologiste français Pierre-André Latreille en 1804. Les Alysiinae sont tous endoparasitoïdes larvaires solitaires de diptères cyclorraphes ou muscomorphes. 
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A. agricolator Zetterstedt, 1838
@@ -638,14 +654,50 @@
 A. vespertina Wharton, 1988
 A. villosa Wharton, 1986
 A. vladik Belokobylskij, 1998
-A. zaykovi Fischer, 1994[1]
-Espèces fossiles
+A. zaykovi Fischer, 1994
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alysia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alysia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 †Alysia exigua Brues 1910
 †Alysia latifrons Statz 1936
 †Alysia meunieri Théobald 1937
 †Alysia petrina Brues 1910
 †Alysia phanerognatha Cockerell 1927
-†Alysia ruskii Cockerell 1913[2]
+†Alysia ruskii Cockerell 1913
 </t>
         </is>
       </c>
